--- a/mpg-report.xlsx
+++ b/mpg-report.xlsx
@@ -988,14 +988,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1018,13 +1025,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1376,9 +1397,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="9" max="9" width="36.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1393,7 +1419,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1422,7 +1448,7 @@
       <c r="D2" t="n">
         <v>130</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="1" t="n">
         <v>3504</v>
       </c>
       <c r="F2" t="n">
@@ -1451,7 +1477,7 @@
       <c r="D3" t="n">
         <v>165</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="1" t="n">
         <v>3693</v>
       </c>
       <c r="F3" t="n">
@@ -1480,7 +1506,7 @@
       <c r="D4" t="n">
         <v>150</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="1" t="n">
         <v>3436</v>
       </c>
       <c r="F4" t="n">
@@ -1509,7 +1535,7 @@
       <c r="D5" t="n">
         <v>150</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="1" t="n">
         <v>3433</v>
       </c>
       <c r="F5" t="n">
@@ -1538,7 +1564,7 @@
       <c r="D6" t="n">
         <v>140</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="1" t="n">
         <v>3449</v>
       </c>
       <c r="F6" t="n">
@@ -1567,7 +1593,7 @@
       <c r="D7" t="n">
         <v>198</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="1" t="n">
         <v>4341</v>
       </c>
       <c r="F7" t="n">
@@ -1596,7 +1622,7 @@
       <c r="D8" t="n">
         <v>220</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="1" t="n">
         <v>4354</v>
       </c>
       <c r="F8" t="n">
@@ -1625,7 +1651,7 @@
       <c r="D9" t="n">
         <v>215</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="1" t="n">
         <v>4312</v>
       </c>
       <c r="F9" t="n">
@@ -1654,7 +1680,7 @@
       <c r="D10" t="n">
         <v>225</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="1" t="n">
         <v>4425</v>
       </c>
       <c r="F10" t="n">
@@ -1683,7 +1709,7 @@
       <c r="D11" t="n">
         <v>190</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="1" t="n">
         <v>3850</v>
       </c>
       <c r="F11" t="n">
@@ -1712,7 +1738,7 @@
       <c r="D12" t="n">
         <v>170</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="1" t="n">
         <v>3563</v>
       </c>
       <c r="F12" t="n">
@@ -1741,7 +1767,7 @@
       <c r="D13" t="n">
         <v>160</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="1" t="n">
         <v>3609</v>
       </c>
       <c r="F13" t="n">
@@ -1770,7 +1796,7 @@
       <c r="D14" t="n">
         <v>150</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="1" t="n">
         <v>3761</v>
       </c>
       <c r="F14" t="n">
@@ -1799,7 +1825,7 @@
       <c r="D15" t="n">
         <v>225</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="1" t="n">
         <v>3086</v>
       </c>
       <c r="F15" t="n">
@@ -1828,7 +1854,7 @@
       <c r="D16" t="n">
         <v>95</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="1" t="n">
         <v>2372</v>
       </c>
       <c r="F16" t="n">
@@ -1857,7 +1883,7 @@
       <c r="D17" t="n">
         <v>95</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="1" t="n">
         <v>2833</v>
       </c>
       <c r="F17" t="n">
@@ -1886,7 +1912,7 @@
       <c r="D18" t="n">
         <v>97</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="1" t="n">
         <v>2774</v>
       </c>
       <c r="F18" t="n">
@@ -1915,7 +1941,7 @@
       <c r="D19" t="n">
         <v>85</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="1" t="n">
         <v>2587</v>
       </c>
       <c r="F19" t="n">
@@ -1944,7 +1970,7 @@
       <c r="D20" t="n">
         <v>88</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="F20" t="n">
@@ -1973,7 +1999,7 @@
       <c r="D21" t="n">
         <v>46</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="1" t="n">
         <v>1835</v>
       </c>
       <c r="F21" t="n">
@@ -2002,7 +2028,7 @@
       <c r="D22" t="n">
         <v>87</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="1" t="n">
         <v>2672</v>
       </c>
       <c r="F22" t="n">
@@ -2031,7 +2057,7 @@
       <c r="D23" t="n">
         <v>90</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="1" t="n">
         <v>2430</v>
       </c>
       <c r="F23" t="n">
@@ -2060,7 +2086,7 @@
       <c r="D24" t="n">
         <v>95</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="1" t="n">
         <v>2375</v>
       </c>
       <c r="F24" t="n">
@@ -2089,7 +2115,7 @@
       <c r="D25" t="n">
         <v>113</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="1" t="n">
         <v>2234</v>
       </c>
       <c r="F25" t="n">
@@ -2118,7 +2144,7 @@
       <c r="D26" t="n">
         <v>90</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="1" t="n">
         <v>2648</v>
       </c>
       <c r="F26" t="n">
@@ -2147,7 +2173,7 @@
       <c r="D27" t="n">
         <v>215</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="1" t="n">
         <v>4615</v>
       </c>
       <c r="F27" t="n">
@@ -2176,7 +2202,7 @@
       <c r="D28" t="n">
         <v>200</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="1" t="n">
         <v>4376</v>
       </c>
       <c r="F28" t="n">
@@ -2205,7 +2231,7 @@
       <c r="D29" t="n">
         <v>210</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="1" t="n">
         <v>4382</v>
       </c>
       <c r="F29" t="n">
@@ -2234,7 +2260,7 @@
       <c r="D30" t="n">
         <v>193</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="1" t="n">
         <v>4732</v>
       </c>
       <c r="F30" t="n">
@@ -2263,7 +2289,7 @@
       <c r="D31" t="n">
         <v>88</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="F31" t="n">
@@ -2292,7 +2318,7 @@
       <c r="D32" t="n">
         <v>90</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="1" t="n">
         <v>2264</v>
       </c>
       <c r="F32" t="n">
@@ -2321,7 +2347,7 @@
       <c r="D33" t="n">
         <v>95</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="1" t="n">
         <v>2228</v>
       </c>
       <c r="F33" t="n">
@@ -2348,7 +2374,7 @@
         <v>98</v>
       </c>
       <c r="D34"/>
-      <c r="E34" t="n">
+      <c r="E34" s="1" t="n">
         <v>2046</v>
       </c>
       <c r="F34" t="n">
@@ -2377,7 +2403,7 @@
       <c r="D35" t="n">
         <v>100</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="1" t="n">
         <v>2634</v>
       </c>
       <c r="F35" t="n">
@@ -2406,7 +2432,7 @@
       <c r="D36" t="n">
         <v>105</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="1" t="n">
         <v>3439</v>
       </c>
       <c r="F36" t="n">
@@ -2435,7 +2461,7 @@
       <c r="D37" t="n">
         <v>100</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="1" t="n">
         <v>3329</v>
       </c>
       <c r="F37" t="n">
@@ -2464,7 +2490,7 @@
       <c r="D38" t="n">
         <v>88</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="1" t="n">
         <v>3302</v>
       </c>
       <c r="F38" t="n">
@@ -2493,7 +2519,7 @@
       <c r="D39" t="n">
         <v>100</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="1" t="n">
         <v>3288</v>
       </c>
       <c r="F39" t="n">
@@ -2522,7 +2548,7 @@
       <c r="D40" t="n">
         <v>165</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="1" t="n">
         <v>4209</v>
       </c>
       <c r="F40" t="n">
@@ -2551,7 +2577,7 @@
       <c r="D41" t="n">
         <v>175</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="1" t="n">
         <v>4464</v>
       </c>
       <c r="F41" t="n">
@@ -2580,7 +2606,7 @@
       <c r="D42" t="n">
         <v>153</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="1" t="n">
         <v>4154</v>
       </c>
       <c r="F42" t="n">
@@ -2609,7 +2635,7 @@
       <c r="D43" t="n">
         <v>150</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="1" t="n">
         <v>4096</v>
       </c>
       <c r="F43" t="n">
@@ -2638,7 +2664,7 @@
       <c r="D44" t="n">
         <v>180</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44" s="1" t="n">
         <v>4955</v>
       </c>
       <c r="F44" t="n">
@@ -2667,7 +2693,7 @@
       <c r="D45" t="n">
         <v>170</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45" s="1" t="n">
         <v>4746</v>
       </c>
       <c r="F45" t="n">
@@ -2696,7 +2722,7 @@
       <c r="D46" t="n">
         <v>175</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46" s="1" t="n">
         <v>5140</v>
       </c>
       <c r="F46" t="n">
@@ -2725,7 +2751,7 @@
       <c r="D47" t="n">
         <v>110</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47" s="1" t="n">
         <v>2962</v>
       </c>
       <c r="F47" t="n">
@@ -2754,7 +2780,7 @@
       <c r="D48" t="n">
         <v>72</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48" s="1" t="n">
         <v>2408</v>
       </c>
       <c r="F48" t="n">
@@ -2783,7 +2809,7 @@
       <c r="D49" t="n">
         <v>100</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49" s="1" t="n">
         <v>3282</v>
       </c>
       <c r="F49" t="n">
@@ -2812,7 +2838,7 @@
       <c r="D50" t="n">
         <v>88</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50" s="1" t="n">
         <v>3139</v>
       </c>
       <c r="F50" t="n">
@@ -2841,7 +2867,7 @@
       <c r="D51" t="n">
         <v>86</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51" s="1" t="n">
         <v>2220</v>
       </c>
       <c r="F51" t="n">
@@ -2870,7 +2896,7 @@
       <c r="D52" t="n">
         <v>90</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52" s="1" t="n">
         <v>2123</v>
       </c>
       <c r="F52" t="n">
@@ -2899,7 +2925,7 @@
       <c r="D53" t="n">
         <v>70</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53" s="1" t="n">
         <v>2074</v>
       </c>
       <c r="F53" t="n">
@@ -2928,7 +2954,7 @@
       <c r="D54" t="n">
         <v>76</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54" s="1" t="n">
         <v>2065</v>
       </c>
       <c r="F54" t="n">
@@ -2957,7 +2983,7 @@
       <c r="D55" t="n">
         <v>65</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55" s="1" t="n">
         <v>1773</v>
       </c>
       <c r="F55" t="n">
@@ -2986,7 +3012,7 @@
       <c r="D56" t="n">
         <v>69</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56" s="1" t="n">
         <v>1613</v>
       </c>
       <c r="F56" t="n">
@@ -3015,7 +3041,7 @@
       <c r="D57" t="n">
         <v>60</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57" s="1" t="n">
         <v>1834</v>
       </c>
       <c r="F57" t="n">
@@ -3044,7 +3070,7 @@
       <c r="D58" t="n">
         <v>70</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58" s="1" t="n">
         <v>1955</v>
       </c>
       <c r="F58" t="n">
@@ -3073,7 +3099,7 @@
       <c r="D59" t="n">
         <v>95</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59" s="1" t="n">
         <v>2278</v>
       </c>
       <c r="F59" t="n">
@@ -3102,7 +3128,7 @@
       <c r="D60" t="n">
         <v>80</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60" s="1" t="n">
         <v>2126</v>
       </c>
       <c r="F60" t="n">
@@ -3131,7 +3157,7 @@
       <c r="D61" t="n">
         <v>54</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61" s="1" t="n">
         <v>2254</v>
       </c>
       <c r="F61" t="n">
@@ -3160,7 +3186,7 @@
       <c r="D62" t="n">
         <v>90</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62" s="1" t="n">
         <v>2408</v>
       </c>
       <c r="F62" t="n">
@@ -3189,7 +3215,7 @@
       <c r="D63" t="n">
         <v>86</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63" s="1" t="n">
         <v>2226</v>
       </c>
       <c r="F63" t="n">
@@ -3218,7 +3244,7 @@
       <c r="D64" t="n">
         <v>165</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64" s="1" t="n">
         <v>4274</v>
       </c>
       <c r="F64" t="n">
@@ -3247,7 +3273,7 @@
       <c r="D65" t="n">
         <v>175</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65" s="1" t="n">
         <v>4385</v>
       </c>
       <c r="F65" t="n">
@@ -3276,7 +3302,7 @@
       <c r="D66" t="n">
         <v>150</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66" s="1" t="n">
         <v>4135</v>
       </c>
       <c r="F66" t="n">
@@ -3305,7 +3331,7 @@
       <c r="D67" t="n">
         <v>153</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67" s="1" t="n">
         <v>4129</v>
       </c>
       <c r="F67" t="n">
@@ -3334,7 +3360,7 @@
       <c r="D68" t="n">
         <v>150</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68" s="1" t="n">
         <v>3672</v>
       </c>
       <c r="F68" t="n">
@@ -3363,7 +3389,7 @@
       <c r="D69" t="n">
         <v>208</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69" s="1" t="n">
         <v>4633</v>
       </c>
       <c r="F69" t="n">
@@ -3392,7 +3418,7 @@
       <c r="D70" t="n">
         <v>155</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70" s="1" t="n">
         <v>4502</v>
       </c>
       <c r="F70" t="n">
@@ -3421,7 +3447,7 @@
       <c r="D71" t="n">
         <v>160</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71" s="1" t="n">
         <v>4456</v>
       </c>
       <c r="F71" t="n">
@@ -3450,7 +3476,7 @@
       <c r="D72" t="n">
         <v>190</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72" s="1" t="n">
         <v>4422</v>
       </c>
       <c r="F72" t="n">
@@ -3479,7 +3505,7 @@
       <c r="D73" t="n">
         <v>97</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73" s="1" t="n">
         <v>2330</v>
       </c>
       <c r="F73" t="n">
@@ -3508,7 +3534,7 @@
       <c r="D74" t="n">
         <v>150</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74" s="1" t="n">
         <v>3892</v>
       </c>
       <c r="F74" t="n">
@@ -3537,7 +3563,7 @@
       <c r="D75" t="n">
         <v>130</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75" s="1" t="n">
         <v>4098</v>
       </c>
       <c r="F75" t="n">
@@ -3566,7 +3592,7 @@
       <c r="D76" t="n">
         <v>140</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76" s="1" t="n">
         <v>4294</v>
       </c>
       <c r="F76" t="n">
@@ -3595,7 +3621,7 @@
       <c r="D77" t="n">
         <v>150</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77" s="1" t="n">
         <v>4077</v>
       </c>
       <c r="F77" t="n">
@@ -3624,7 +3650,7 @@
       <c r="D78" t="n">
         <v>112</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78" s="1" t="n">
         <v>2933</v>
       </c>
       <c r="F78" t="n">
@@ -3653,7 +3679,7 @@
       <c r="D79" t="n">
         <v>76</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79" s="1" t="n">
         <v>2511</v>
       </c>
       <c r="F79" t="n">
@@ -3682,7 +3708,7 @@
       <c r="D80" t="n">
         <v>87</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80" s="1" t="n">
         <v>2979</v>
       </c>
       <c r="F80" t="n">
@@ -3711,7 +3737,7 @@
       <c r="D81" t="n">
         <v>69</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81" s="1" t="n">
         <v>2189</v>
       </c>
       <c r="F81" t="n">
@@ -3740,7 +3766,7 @@
       <c r="D82" t="n">
         <v>86</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82" s="1" t="n">
         <v>2395</v>
       </c>
       <c r="F82" t="n">
@@ -3769,7 +3795,7 @@
       <c r="D83" t="n">
         <v>92</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83" s="1" t="n">
         <v>2288</v>
       </c>
       <c r="F83" t="n">
@@ -3798,7 +3824,7 @@
       <c r="D84" t="n">
         <v>97</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84" s="1" t="n">
         <v>2506</v>
       </c>
       <c r="F84" t="n">
@@ -3827,7 +3853,7 @@
       <c r="D85" t="n">
         <v>80</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85" s="1" t="n">
         <v>2164</v>
       </c>
       <c r="F85" t="n">
@@ -3856,7 +3882,7 @@
       <c r="D86" t="n">
         <v>88</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86" s="1" t="n">
         <v>2100</v>
       </c>
       <c r="F86" t="n">
@@ -3885,7 +3911,7 @@
       <c r="D87" t="n">
         <v>175</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87" s="1" t="n">
         <v>4100</v>
       </c>
       <c r="F87" t="n">
@@ -3914,7 +3940,7 @@
       <c r="D88" t="n">
         <v>150</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88" s="1" t="n">
         <v>3672</v>
       </c>
       <c r="F88" t="n">
@@ -3943,7 +3969,7 @@
       <c r="D89" t="n">
         <v>145</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89" s="1" t="n">
         <v>3988</v>
       </c>
       <c r="F89" t="n">
@@ -3972,7 +3998,7 @@
       <c r="D90" t="n">
         <v>137</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90" s="1" t="n">
         <v>4042</v>
       </c>
       <c r="F90" t="n">
@@ -4001,7 +4027,7 @@
       <c r="D91" t="n">
         <v>150</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91" s="1" t="n">
         <v>3777</v>
       </c>
       <c r="F91" t="n">
@@ -4030,7 +4056,7 @@
       <c r="D92" t="n">
         <v>198</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92" s="1" t="n">
         <v>4952</v>
       </c>
       <c r="F92" t="n">
@@ -4059,7 +4085,7 @@
       <c r="D93" t="n">
         <v>150</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93" s="1" t="n">
         <v>4464</v>
       </c>
       <c r="F93" t="n">
@@ -4088,7 +4114,7 @@
       <c r="D94" t="n">
         <v>158</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94" s="1" t="n">
         <v>4363</v>
       </c>
       <c r="F94" t="n">
@@ -4117,7 +4143,7 @@
       <c r="D95" t="n">
         <v>150</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95" s="1" t="n">
         <v>4237</v>
       </c>
       <c r="F95" t="n">
@@ -4146,7 +4172,7 @@
       <c r="D96" t="n">
         <v>215</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96" s="1" t="n">
         <v>4735</v>
       </c>
       <c r="F96" t="n">
@@ -4175,7 +4201,7 @@
       <c r="D97" t="n">
         <v>225</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97" s="1" t="n">
         <v>4951</v>
       </c>
       <c r="F97" t="n">
@@ -4204,7 +4230,7 @@
       <c r="D98" t="n">
         <v>175</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98" s="1" t="n">
         <v>3821</v>
       </c>
       <c r="F98" t="n">
@@ -4233,7 +4259,7 @@
       <c r="D99" t="n">
         <v>105</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99" s="1" t="n">
         <v>3121</v>
       </c>
       <c r="F99" t="n">
@@ -4262,7 +4288,7 @@
       <c r="D100" t="n">
         <v>100</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100" s="1" t="n">
         <v>3278</v>
       </c>
       <c r="F100" t="n">
@@ -4291,7 +4317,7 @@
       <c r="D101" t="n">
         <v>100</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101" s="1" t="n">
         <v>2945</v>
       </c>
       <c r="F101" t="n">
@@ -4320,7 +4346,7 @@
       <c r="D102" t="n">
         <v>88</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102" s="1" t="n">
         <v>3021</v>
       </c>
       <c r="F102" t="n">
@@ -4349,7 +4375,7 @@
       <c r="D103" t="n">
         <v>95</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103" s="1" t="n">
         <v>2904</v>
       </c>
       <c r="F103" t="n">
@@ -4378,7 +4404,7 @@
       <c r="D104" t="n">
         <v>46</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104" s="1" t="n">
         <v>1950</v>
       </c>
       <c r="F104" t="n">
@@ -4407,7 +4433,7 @@
       <c r="D105" t="n">
         <v>150</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105" s="1" t="n">
         <v>4997</v>
       </c>
       <c r="F105" t="n">
@@ -4436,7 +4462,7 @@
       <c r="D106" t="n">
         <v>167</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106" s="1" t="n">
         <v>4906</v>
       </c>
       <c r="F106" t="n">
@@ -4465,7 +4491,7 @@
       <c r="D107" t="n">
         <v>170</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107" s="1" t="n">
         <v>4654</v>
       </c>
       <c r="F107" t="n">
@@ -4494,7 +4520,7 @@
       <c r="D108" t="n">
         <v>180</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108" s="1" t="n">
         <v>4499</v>
       </c>
       <c r="F108" t="n">
@@ -4523,7 +4549,7 @@
       <c r="D109" t="n">
         <v>100</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109" s="1" t="n">
         <v>2789</v>
       </c>
       <c r="F109" t="n">
@@ -4552,7 +4578,7 @@
       <c r="D110" t="n">
         <v>88</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110" s="1" t="n">
         <v>2279</v>
       </c>
       <c r="F110" t="n">
@@ -4581,7 +4607,7 @@
       <c r="D111" t="n">
         <v>72</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111" s="1" t="n">
         <v>2401</v>
       </c>
       <c r="F111" t="n">
@@ -4610,7 +4636,7 @@
       <c r="D112" t="n">
         <v>94</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112" s="1" t="n">
         <v>2379</v>
       </c>
       <c r="F112" t="n">
@@ -4639,7 +4665,7 @@
       <c r="D113" t="n">
         <v>90</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113" s="1" t="n">
         <v>2124</v>
       </c>
       <c r="F113" t="n">
@@ -4668,7 +4694,7 @@
       <c r="D114" t="n">
         <v>85</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114" s="1" t="n">
         <v>2310</v>
       </c>
       <c r="F114" t="n">
@@ -4697,7 +4723,7 @@
       <c r="D115" t="n">
         <v>107</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115" s="1" t="n">
         <v>2472</v>
       </c>
       <c r="F115" t="n">
@@ -4726,7 +4752,7 @@
       <c r="D116" t="n">
         <v>90</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116" s="1" t="n">
         <v>2265</v>
       </c>
       <c r="F116" t="n">
@@ -4755,7 +4781,7 @@
       <c r="D117" t="n">
         <v>145</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117" s="1" t="n">
         <v>4082</v>
       </c>
       <c r="F117" t="n">
@@ -4784,7 +4810,7 @@
       <c r="D118" t="n">
         <v>230</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118" s="1" t="n">
         <v>4278</v>
       </c>
       <c r="F118" t="n">
@@ -4813,7 +4839,7 @@
       <c r="D119" t="n">
         <v>49</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119" s="1" t="n">
         <v>1867</v>
       </c>
       <c r="F119" t="n">
@@ -4842,7 +4868,7 @@
       <c r="D120" t="n">
         <v>75</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120" s="1" t="n">
         <v>2158</v>
       </c>
       <c r="F120" t="n">
@@ -4871,7 +4897,7 @@
       <c r="D121" t="n">
         <v>91</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121" s="1" t="n">
         <v>2582</v>
       </c>
       <c r="F121" t="n">
@@ -4900,7 +4926,7 @@
       <c r="D122" t="n">
         <v>112</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122" s="1" t="n">
         <v>2868</v>
       </c>
       <c r="F122" t="n">
@@ -4929,7 +4955,7 @@
       <c r="D123" t="n">
         <v>150</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123" s="1" t="n">
         <v>3399</v>
       </c>
       <c r="F123" t="n">
@@ -4958,7 +4984,7 @@
       <c r="D124" t="n">
         <v>110</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124" s="1" t="n">
         <v>2660</v>
       </c>
       <c r="F124" t="n">
@@ -4987,7 +5013,7 @@
       <c r="D125" t="n">
         <v>122</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125" s="1" t="n">
         <v>2807</v>
       </c>
       <c r="F125" t="n">
@@ -5016,7 +5042,7 @@
       <c r="D126" t="n">
         <v>180</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126" s="1" t="n">
         <v>3664</v>
       </c>
       <c r="F126" t="n">
@@ -5045,7 +5071,7 @@
       <c r="D127" t="n">
         <v>95</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127" s="1" t="n">
         <v>3102</v>
       </c>
       <c r="F127" t="n">
@@ -5072,7 +5098,7 @@
         <v>200</v>
       </c>
       <c r="D128"/>
-      <c r="E128" t="n">
+      <c r="E128" s="1" t="n">
         <v>2875</v>
       </c>
       <c r="F128" t="n">
@@ -5101,7 +5127,7 @@
       <c r="D129" t="n">
         <v>100</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129" s="1" t="n">
         <v>2901</v>
       </c>
       <c r="F129" t="n">
@@ -5130,7 +5156,7 @@
       <c r="D130" t="n">
         <v>100</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130" s="1" t="n">
         <v>3336</v>
       </c>
       <c r="F130" t="n">
@@ -5159,7 +5185,7 @@
       <c r="D131" t="n">
         <v>67</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131" s="1" t="n">
         <v>1950</v>
       </c>
       <c r="F131" t="n">
@@ -5188,7 +5214,7 @@
       <c r="D132" t="n">
         <v>80</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132" s="1" t="n">
         <v>2451</v>
       </c>
       <c r="F132" t="n">
@@ -5217,7 +5243,7 @@
       <c r="D133" t="n">
         <v>65</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133" s="1" t="n">
         <v>1836</v>
       </c>
       <c r="F133" t="n">
@@ -5246,7 +5272,7 @@
       <c r="D134" t="n">
         <v>75</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134" s="1" t="n">
         <v>2542</v>
       </c>
       <c r="F134" t="n">
@@ -5275,7 +5301,7 @@
       <c r="D135" t="n">
         <v>100</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135" s="1" t="n">
         <v>3781</v>
       </c>
       <c r="F135" t="n">
@@ -5304,7 +5330,7 @@
       <c r="D136" t="n">
         <v>110</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136" s="1" t="n">
         <v>3632</v>
       </c>
       <c r="F136" t="n">
@@ -5333,7 +5359,7 @@
       <c r="D137" t="n">
         <v>105</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137" s="1" t="n">
         <v>3613</v>
       </c>
       <c r="F137" t="n">
@@ -5362,7 +5388,7 @@
       <c r="D138" t="n">
         <v>140</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E138" s="1" t="n">
         <v>4141</v>
       </c>
       <c r="F138" t="n">
@@ -5391,7 +5417,7 @@
       <c r="D139" t="n">
         <v>150</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139" s="1" t="n">
         <v>4699</v>
       </c>
       <c r="F139" t="n">
@@ -5420,7 +5446,7 @@
       <c r="D140" t="n">
         <v>150</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E140" s="1" t="n">
         <v>4457</v>
       </c>
       <c r="F140" t="n">
@@ -5449,7 +5475,7 @@
       <c r="D141" t="n">
         <v>140</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141" s="1" t="n">
         <v>4638</v>
       </c>
       <c r="F141" t="n">
@@ -5478,7 +5504,7 @@
       <c r="D142" t="n">
         <v>150</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E142" s="1" t="n">
         <v>4257</v>
       </c>
       <c r="F142" t="n">
@@ -5507,7 +5533,7 @@
       <c r="D143" t="n">
         <v>83</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E143" s="1" t="n">
         <v>2219</v>
       </c>
       <c r="F143" t="n">
@@ -5536,7 +5562,7 @@
       <c r="D144" t="n">
         <v>67</v>
       </c>
-      <c r="E144" t="n">
+      <c r="E144" s="1" t="n">
         <v>1963</v>
       </c>
       <c r="F144" t="n">
@@ -5565,7 +5591,7 @@
       <c r="D145" t="n">
         <v>78</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145" s="1" t="n">
         <v>2300</v>
       </c>
       <c r="F145" t="n">
@@ -5594,7 +5620,7 @@
       <c r="D146" t="n">
         <v>52</v>
       </c>
-      <c r="E146" t="n">
+      <c r="E146" s="1" t="n">
         <v>1649</v>
       </c>
       <c r="F146" t="n">
@@ -5623,7 +5649,7 @@
       <c r="D147" t="n">
         <v>61</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="F147" t="n">
@@ -5652,7 +5678,7 @@
       <c r="D148" t="n">
         <v>75</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148" s="1" t="n">
         <v>2125</v>
       </c>
       <c r="F148" t="n">
@@ -5681,7 +5707,7 @@
       <c r="D149" t="n">
         <v>75</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E149" s="1" t="n">
         <v>2108</v>
       </c>
       <c r="F149" t="n">
@@ -5710,7 +5736,7 @@
       <c r="D150" t="n">
         <v>75</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150" s="1" t="n">
         <v>2246</v>
       </c>
       <c r="F150" t="n">
@@ -5739,7 +5765,7 @@
       <c r="D151" t="n">
         <v>97</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151" s="1" t="n">
         <v>2489</v>
       </c>
       <c r="F151" t="n">
@@ -5768,7 +5794,7 @@
       <c r="D152" t="n">
         <v>93</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152" s="1" t="n">
         <v>2391</v>
       </c>
       <c r="F152" t="n">
@@ -5797,7 +5823,7 @@
       <c r="D153" t="n">
         <v>67</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E153" s="1" t="n">
         <v>2000</v>
       </c>
       <c r="F153" t="n">
@@ -5826,7 +5852,7 @@
       <c r="D154" t="n">
         <v>95</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154" s="1" t="n">
         <v>3264</v>
       </c>
       <c r="F154" t="n">
@@ -5855,7 +5881,7 @@
       <c r="D155" t="n">
         <v>105</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155" s="1" t="n">
         <v>3459</v>
       </c>
       <c r="F155" t="n">
@@ -5884,7 +5910,7 @@
       <c r="D156" t="n">
         <v>72</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156" s="1" t="n">
         <v>3432</v>
       </c>
       <c r="F156" t="n">
@@ -5913,7 +5939,7 @@
       <c r="D157" t="n">
         <v>72</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157" s="1" t="n">
         <v>3158</v>
       </c>
       <c r="F157" t="n">
@@ -5942,7 +5968,7 @@
       <c r="D158" t="n">
         <v>170</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158" s="1" t="n">
         <v>4668</v>
       </c>
       <c r="F158" t="n">
@@ -5971,7 +5997,7 @@
       <c r="D159" t="n">
         <v>145</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159" s="1" t="n">
         <v>4440</v>
       </c>
       <c r="F159" t="n">
@@ -6000,7 +6026,7 @@
       <c r="D160" t="n">
         <v>150</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160" s="1" t="n">
         <v>4498</v>
       </c>
       <c r="F160" t="n">
@@ -6029,7 +6055,7 @@
       <c r="D161" t="n">
         <v>148</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161" s="1" t="n">
         <v>4657</v>
       </c>
       <c r="F161" t="n">
@@ -6058,7 +6084,7 @@
       <c r="D162" t="n">
         <v>110</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162" s="1" t="n">
         <v>3907</v>
       </c>
       <c r="F162" t="n">
@@ -6087,7 +6113,7 @@
       <c r="D163" t="n">
         <v>105</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163" s="1" t="n">
         <v>3897</v>
       </c>
       <c r="F163" t="n">
@@ -6116,7 +6142,7 @@
       <c r="D164" t="n">
         <v>110</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164" s="1" t="n">
         <v>3730</v>
       </c>
       <c r="F164" t="n">
@@ -6145,7 +6171,7 @@
       <c r="D165" t="n">
         <v>95</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E165" s="1" t="n">
         <v>3785</v>
       </c>
       <c r="F165" t="n">
@@ -6174,7 +6200,7 @@
       <c r="D166" t="n">
         <v>110</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166" s="1" t="n">
         <v>3039</v>
       </c>
       <c r="F166" t="n">
@@ -6203,7 +6229,7 @@
       <c r="D167" t="n">
         <v>110</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167" s="1" t="n">
         <v>3221</v>
       </c>
       <c r="F167" t="n">
@@ -6232,7 +6258,7 @@
       <c r="D168" t="n">
         <v>129</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168" s="1" t="n">
         <v>3169</v>
       </c>
       <c r="F168" t="n">
@@ -6261,7 +6287,7 @@
       <c r="D169" t="n">
         <v>75</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169" s="1" t="n">
         <v>2171</v>
       </c>
       <c r="F169" t="n">
@@ -6290,7 +6316,7 @@
       <c r="D170" t="n">
         <v>83</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170" s="1" t="n">
         <v>2639</v>
       </c>
       <c r="F170" t="n">
@@ -6319,7 +6345,7 @@
       <c r="D171" t="n">
         <v>100</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E171" s="1" t="n">
         <v>2914</v>
       </c>
       <c r="F171" t="n">
@@ -6348,7 +6374,7 @@
       <c r="D172" t="n">
         <v>78</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172" s="1" t="n">
         <v>2592</v>
       </c>
       <c r="F172" t="n">
@@ -6377,7 +6403,7 @@
       <c r="D173" t="n">
         <v>96</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173" s="1" t="n">
         <v>2702</v>
       </c>
       <c r="F173" t="n">
@@ -6406,7 +6432,7 @@
       <c r="D174" t="n">
         <v>71</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E174" s="1" t="n">
         <v>2223</v>
       </c>
       <c r="F174" t="n">
@@ -6435,7 +6461,7 @@
       <c r="D175" t="n">
         <v>97</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175" s="1" t="n">
         <v>2545</v>
       </c>
       <c r="F175" t="n">
@@ -6464,7 +6490,7 @@
       <c r="D176" t="n">
         <v>97</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176" s="1" t="n">
         <v>2984</v>
       </c>
       <c r="F176" t="n">
@@ -6493,7 +6519,7 @@
       <c r="D177" t="n">
         <v>70</v>
       </c>
-      <c r="E177" t="n">
+      <c r="E177" s="1" t="n">
         <v>1937</v>
       </c>
       <c r="F177" t="n">
@@ -6522,7 +6548,7 @@
       <c r="D178" t="n">
         <v>90</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178" s="1" t="n">
         <v>3211</v>
       </c>
       <c r="F178" t="n">
@@ -6551,7 +6577,7 @@
       <c r="D179" t="n">
         <v>95</v>
       </c>
-      <c r="E179" t="n">
+      <c r="E179" s="1" t="n">
         <v>2694</v>
       </c>
       <c r="F179" t="n">
@@ -6580,7 +6606,7 @@
       <c r="D180" t="n">
         <v>88</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180" s="1" t="n">
         <v>2957</v>
       </c>
       <c r="F180" t="n">
@@ -6609,7 +6635,7 @@
       <c r="D181" t="n">
         <v>98</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181" s="1" t="n">
         <v>2945</v>
       </c>
       <c r="F181" t="n">
@@ -6638,7 +6664,7 @@
       <c r="D182" t="n">
         <v>115</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182" s="1" t="n">
         <v>2671</v>
       </c>
       <c r="F182" t="n">
@@ -6667,7 +6693,7 @@
       <c r="D183" t="n">
         <v>53</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183" s="1" t="n">
         <v>1795</v>
       </c>
       <c r="F183" t="n">
@@ -6696,7 +6722,7 @@
       <c r="D184" t="n">
         <v>86</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184" s="1" t="n">
         <v>2464</v>
       </c>
       <c r="F184" t="n">
@@ -6725,7 +6751,7 @@
       <c r="D185" t="n">
         <v>81</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185" s="1" t="n">
         <v>2220</v>
       </c>
       <c r="F185" t="n">
@@ -6754,7 +6780,7 @@
       <c r="D186" t="n">
         <v>92</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186" s="1" t="n">
         <v>2572</v>
       </c>
       <c r="F186" t="n">
@@ -6783,7 +6809,7 @@
       <c r="D187" t="n">
         <v>79</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187" s="1" t="n">
         <v>2255</v>
       </c>
       <c r="F187" t="n">
@@ -6812,7 +6838,7 @@
       <c r="D188" t="n">
         <v>83</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188" s="1" t="n">
         <v>2202</v>
       </c>
       <c r="F188" t="n">
@@ -6841,7 +6867,7 @@
       <c r="D189" t="n">
         <v>140</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189" s="1" t="n">
         <v>4215</v>
       </c>
       <c r="F189" t="n">
@@ -6870,7 +6896,7 @@
       <c r="D190" t="n">
         <v>150</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190" s="1" t="n">
         <v>4190</v>
       </c>
       <c r="F190" t="n">
@@ -6899,7 +6925,7 @@
       <c r="D191" t="n">
         <v>120</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191" s="1" t="n">
         <v>3962</v>
       </c>
       <c r="F191" t="n">
@@ -6928,7 +6954,7 @@
       <c r="D192" t="n">
         <v>152</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192" s="1" t="n">
         <v>4215</v>
       </c>
       <c r="F192" t="n">
@@ -6957,7 +6983,7 @@
       <c r="D193" t="n">
         <v>100</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193" s="1" t="n">
         <v>3233</v>
       </c>
       <c r="F193" t="n">
@@ -6986,7 +7012,7 @@
       <c r="D194" t="n">
         <v>105</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194" s="1" t="n">
         <v>3353</v>
       </c>
       <c r="F194" t="n">
@@ -7015,7 +7041,7 @@
       <c r="D195" t="n">
         <v>81</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195" s="1" t="n">
         <v>3012</v>
       </c>
       <c r="F195" t="n">
@@ -7044,7 +7070,7 @@
       <c r="D196" t="n">
         <v>90</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196" s="1" t="n">
         <v>3085</v>
       </c>
       <c r="F196" t="n">
@@ -7073,7 +7099,7 @@
       <c r="D197" t="n">
         <v>52</v>
       </c>
-      <c r="E197" t="n">
+      <c r="E197" s="1" t="n">
         <v>2035</v>
       </c>
       <c r="F197" t="n">
@@ -7102,7 +7128,7 @@
       <c r="D198" t="n">
         <v>60</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198" s="1" t="n">
         <v>2164</v>
       </c>
       <c r="F198" t="n">
@@ -7131,7 +7157,7 @@
       <c r="D199" t="n">
         <v>70</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199" s="1" t="n">
         <v>1937</v>
       </c>
       <c r="F199" t="n">
@@ -7160,7 +7186,7 @@
       <c r="D200" t="n">
         <v>53</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200" s="1" t="n">
         <v>1795</v>
       </c>
       <c r="F200" t="n">
@@ -7189,7 +7215,7 @@
       <c r="D201" t="n">
         <v>100</v>
       </c>
-      <c r="E201" t="n">
+      <c r="E201" s="1" t="n">
         <v>3651</v>
       </c>
       <c r="F201" t="n">
@@ -7218,7 +7244,7 @@
       <c r="D202" t="n">
         <v>78</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202" s="1" t="n">
         <v>3574</v>
       </c>
       <c r="F202" t="n">
@@ -7247,7 +7273,7 @@
       <c r="D203" t="n">
         <v>110</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203" s="1" t="n">
         <v>3645</v>
       </c>
       <c r="F203" t="n">
@@ -7276,7 +7302,7 @@
       <c r="D204" t="n">
         <v>95</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204" s="1" t="n">
         <v>3193</v>
       </c>
       <c r="F204" t="n">
@@ -7305,7 +7331,7 @@
       <c r="D205" t="n">
         <v>71</v>
       </c>
-      <c r="E205" t="n">
+      <c r="E205" s="1" t="n">
         <v>1825</v>
       </c>
       <c r="F205" t="n">
@@ -7334,7 +7360,7 @@
       <c r="D206" t="n">
         <v>70</v>
       </c>
-      <c r="E206" t="n">
+      <c r="E206" s="1" t="n">
         <v>1990</v>
       </c>
       <c r="F206" t="n">
@@ -7363,7 +7389,7 @@
       <c r="D207" t="n">
         <v>75</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207" s="1" t="n">
         <v>2155</v>
       </c>
       <c r="F207" t="n">
@@ -7392,7 +7418,7 @@
       <c r="D208" t="n">
         <v>72</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208" s="1" t="n">
         <v>2565</v>
       </c>
       <c r="F208" t="n">
@@ -7421,7 +7447,7 @@
       <c r="D209" t="n">
         <v>102</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209" s="1" t="n">
         <v>3150</v>
       </c>
       <c r="F209" t="n">
@@ -7450,7 +7476,7 @@
       <c r="D210" t="n">
         <v>150</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210" s="1" t="n">
         <v>3940</v>
       </c>
       <c r="F210" t="n">
@@ -7479,7 +7505,7 @@
       <c r="D211" t="n">
         <v>88</v>
       </c>
-      <c r="E211" t="n">
+      <c r="E211" s="1" t="n">
         <v>3270</v>
       </c>
       <c r="F211" t="n">
@@ -7508,7 +7534,7 @@
       <c r="D212" t="n">
         <v>108</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212" s="1" t="n">
         <v>2930</v>
       </c>
       <c r="F212" t="n">
@@ -7537,7 +7563,7 @@
       <c r="D213" t="n">
         <v>120</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213" s="1" t="n">
         <v>3820</v>
       </c>
       <c r="F213" t="n">
@@ -7566,7 +7592,7 @@
       <c r="D214" t="n">
         <v>180</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214" s="1" t="n">
         <v>4380</v>
       </c>
       <c r="F214" t="n">
@@ -7595,7 +7621,7 @@
       <c r="D215" t="n">
         <v>145</v>
       </c>
-      <c r="E215" t="n">
+      <c r="E215" s="1" t="n">
         <v>4055</v>
       </c>
       <c r="F215" t="n">
@@ -7624,7 +7650,7 @@
       <c r="D216" t="n">
         <v>130</v>
       </c>
-      <c r="E216" t="n">
+      <c r="E216" s="1" t="n">
         <v>3870</v>
       </c>
       <c r="F216" t="n">
@@ -7653,7 +7679,7 @@
       <c r="D217" t="n">
         <v>150</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217" s="1" t="n">
         <v>3755</v>
       </c>
       <c r="F217" t="n">
@@ -7682,7 +7708,7 @@
       <c r="D218" t="n">
         <v>68</v>
       </c>
-      <c r="E218" t="n">
+      <c r="E218" s="1" t="n">
         <v>2045</v>
       </c>
       <c r="F218" t="n">
@@ -7711,7 +7737,7 @@
       <c r="D219" t="n">
         <v>80</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219" s="1" t="n">
         <v>2155</v>
       </c>
       <c r="F219" t="n">
@@ -7740,7 +7766,7 @@
       <c r="D220" t="n">
         <v>58</v>
       </c>
-      <c r="E220" t="n">
+      <c r="E220" s="1" t="n">
         <v>1825</v>
       </c>
       <c r="F220" t="n">
@@ -7769,7 +7795,7 @@
       <c r="D221" t="n">
         <v>96</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221" s="1" t="n">
         <v>2300</v>
       </c>
       <c r="F221" t="n">
@@ -7798,7 +7824,7 @@
       <c r="D222" t="n">
         <v>70</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222" s="1" t="n">
         <v>1945</v>
       </c>
       <c r="F222" t="n">
@@ -7827,7 +7853,7 @@
       <c r="D223" t="n">
         <v>145</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223" s="1" t="n">
         <v>3880</v>
       </c>
       <c r="F223" t="n">
@@ -7856,7 +7882,7 @@
       <c r="D224" t="n">
         <v>110</v>
       </c>
-      <c r="E224" t="n">
+      <c r="E224" s="1" t="n">
         <v>4060</v>
       </c>
       <c r="F224" t="n">
@@ -7885,7 +7911,7 @@
       <c r="D225" t="n">
         <v>145</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225" s="1" t="n">
         <v>4140</v>
       </c>
       <c r="F225" t="n">
@@ -7914,7 +7940,7 @@
       <c r="D226" t="n">
         <v>130</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226" s="1" t="n">
         <v>4295</v>
       </c>
       <c r="F226" t="n">
@@ -7943,7 +7969,7 @@
       <c r="D227" t="n">
         <v>110</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227" s="1" t="n">
         <v>3520</v>
       </c>
       <c r="F227" t="n">
@@ -7972,7 +7998,7 @@
       <c r="D228" t="n">
         <v>105</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228" s="1" t="n">
         <v>3425</v>
       </c>
       <c r="F228" t="n">
@@ -8001,7 +8027,7 @@
       <c r="D229" t="n">
         <v>100</v>
       </c>
-      <c r="E229" t="n">
+      <c r="E229" s="1" t="n">
         <v>3630</v>
       </c>
       <c r="F229" t="n">
@@ -8030,7 +8056,7 @@
       <c r="D230" t="n">
         <v>98</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230" s="1" t="n">
         <v>3525</v>
       </c>
       <c r="F230" t="n">
@@ -8059,7 +8085,7 @@
       <c r="D231" t="n">
         <v>180</v>
       </c>
-      <c r="E231" t="n">
+      <c r="E231" s="1" t="n">
         <v>4220</v>
       </c>
       <c r="F231" t="n">
@@ -8088,7 +8114,7 @@
       <c r="D232" t="n">
         <v>170</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232" s="1" t="n">
         <v>4165</v>
       </c>
       <c r="F232" t="n">
@@ -8117,7 +8143,7 @@
       <c r="D233" t="n">
         <v>190</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233" s="1" t="n">
         <v>4325</v>
       </c>
       <c r="F233" t="n">
@@ -8146,7 +8172,7 @@
       <c r="D234" t="n">
         <v>149</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234" s="1" t="n">
         <v>4335</v>
       </c>
       <c r="F234" t="n">
@@ -8175,7 +8201,7 @@
       <c r="D235" t="n">
         <v>78</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235" s="1" t="n">
         <v>1940</v>
       </c>
       <c r="F235" t="n">
@@ -8204,7 +8230,7 @@
       <c r="D236" t="n">
         <v>88</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236" s="1" t="n">
         <v>2740</v>
       </c>
       <c r="F236" t="n">
@@ -8233,7 +8259,7 @@
       <c r="D237" t="n">
         <v>75</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237" s="1" t="n">
         <v>2265</v>
       </c>
       <c r="F237" t="n">
@@ -8262,7 +8288,7 @@
       <c r="D238" t="n">
         <v>89</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238" s="1" t="n">
         <v>2755</v>
       </c>
       <c r="F238" t="n">
@@ -8291,7 +8317,7 @@
       <c r="D239" t="n">
         <v>63</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239" s="1" t="n">
         <v>2051</v>
       </c>
       <c r="F239" t="n">
@@ -8320,7 +8346,7 @@
       <c r="D240" t="n">
         <v>83</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240" s="1" t="n">
         <v>2075</v>
       </c>
       <c r="F240" t="n">
@@ -8349,7 +8375,7 @@
       <c r="D241" t="n">
         <v>67</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E241" s="1" t="n">
         <v>1985</v>
       </c>
       <c r="F241" t="n">
@@ -8378,7 +8404,7 @@
       <c r="D242" t="n">
         <v>78</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242" s="1" t="n">
         <v>2190</v>
       </c>
       <c r="F242" t="n">
@@ -8407,7 +8433,7 @@
       <c r="D243" t="n">
         <v>97</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243" s="1" t="n">
         <v>2815</v>
       </c>
       <c r="F243" t="n">
@@ -8436,7 +8462,7 @@
       <c r="D244" t="n">
         <v>110</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244" s="1" t="n">
         <v>2600</v>
       </c>
       <c r="F244" t="n">
@@ -8465,7 +8491,7 @@
       <c r="D245" t="n">
         <v>110</v>
       </c>
-      <c r="E245" t="n">
+      <c r="E245" s="1" t="n">
         <v>2720</v>
       </c>
       <c r="F245" t="n">
@@ -8494,7 +8520,7 @@
       <c r="D246" t="n">
         <v>48</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246" s="1" t="n">
         <v>1985</v>
       </c>
       <c r="F246" t="n">
@@ -8523,7 +8549,7 @@
       <c r="D247" t="n">
         <v>66</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F247" t="n">
@@ -8552,7 +8578,7 @@
       <c r="D248" t="n">
         <v>52</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248" s="1" t="n">
         <v>1985</v>
       </c>
       <c r="F248" t="n">
@@ -8581,7 +8607,7 @@
       <c r="D249" t="n">
         <v>70</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249" s="1" t="n">
         <v>2070</v>
       </c>
       <c r="F249" t="n">
@@ -8610,7 +8636,7 @@
       <c r="D250" t="n">
         <v>60</v>
       </c>
-      <c r="E250" t="n">
+      <c r="E250" s="1" t="n">
         <v>1800</v>
       </c>
       <c r="F250" t="n">
@@ -8639,7 +8665,7 @@
       <c r="D251" t="n">
         <v>110</v>
       </c>
-      <c r="E251" t="n">
+      <c r="E251" s="1" t="n">
         <v>3365</v>
       </c>
       <c r="F251" t="n">
@@ -8668,7 +8694,7 @@
       <c r="D252" t="n">
         <v>140</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252" s="1" t="n">
         <v>3735</v>
       </c>
       <c r="F252" t="n">
@@ -8697,7 +8723,7 @@
       <c r="D253" t="n">
         <v>139</v>
       </c>
-      <c r="E253" t="n">
+      <c r="E253" s="1" t="n">
         <v>3570</v>
       </c>
       <c r="F253" t="n">
@@ -8726,7 +8752,7 @@
       <c r="D254" t="n">
         <v>105</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254" s="1" t="n">
         <v>3535</v>
       </c>
       <c r="F254" t="n">
@@ -8755,7 +8781,7 @@
       <c r="D255" t="n">
         <v>95</v>
       </c>
-      <c r="E255" t="n">
+      <c r="E255" s="1" t="n">
         <v>3155</v>
       </c>
       <c r="F255" t="n">
@@ -8784,7 +8810,7 @@
       <c r="D256" t="n">
         <v>85</v>
       </c>
-      <c r="E256" t="n">
+      <c r="E256" s="1" t="n">
         <v>2965</v>
       </c>
       <c r="F256" t="n">
@@ -8813,7 +8839,7 @@
       <c r="D257" t="n">
         <v>88</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E257" s="1" t="n">
         <v>2720</v>
       </c>
       <c r="F257" t="n">
@@ -8842,7 +8868,7 @@
       <c r="D258" t="n">
         <v>100</v>
       </c>
-      <c r="E258" t="n">
+      <c r="E258" s="1" t="n">
         <v>3430</v>
       </c>
       <c r="F258" t="n">
@@ -8871,7 +8897,7 @@
       <c r="D259" t="n">
         <v>90</v>
       </c>
-      <c r="E259" t="n">
+      <c r="E259" s="1" t="n">
         <v>3210</v>
       </c>
       <c r="F259" t="n">
@@ -8900,7 +8926,7 @@
       <c r="D260" t="n">
         <v>105</v>
       </c>
-      <c r="E260" t="n">
+      <c r="E260" s="1" t="n">
         <v>3380</v>
       </c>
       <c r="F260" t="n">
@@ -8929,7 +8955,7 @@
       <c r="D261" t="n">
         <v>85</v>
       </c>
-      <c r="E261" t="n">
+      <c r="E261" s="1" t="n">
         <v>3070</v>
       </c>
       <c r="F261" t="n">
@@ -8958,7 +8984,7 @@
       <c r="D262" t="n">
         <v>110</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E262" s="1" t="n">
         <v>3620</v>
       </c>
       <c r="F262" t="n">
@@ -8987,7 +9013,7 @@
       <c r="D263" t="n">
         <v>120</v>
       </c>
-      <c r="E263" t="n">
+      <c r="E263" s="1" t="n">
         <v>3410</v>
       </c>
       <c r="F263" t="n">
@@ -9016,7 +9042,7 @@
       <c r="D264" t="n">
         <v>145</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E264" s="1" t="n">
         <v>3425</v>
       </c>
       <c r="F264" t="n">
@@ -9045,7 +9071,7 @@
       <c r="D265" t="n">
         <v>165</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E265" s="1" t="n">
         <v>3445</v>
       </c>
       <c r="F265" t="n">
@@ -9074,7 +9100,7 @@
       <c r="D266" t="n">
         <v>139</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E266" s="1" t="n">
         <v>3205</v>
       </c>
       <c r="F266" t="n">
@@ -9103,7 +9129,7 @@
       <c r="D267" t="n">
         <v>140</v>
       </c>
-      <c r="E267" t="n">
+      <c r="E267" s="1" t="n">
         <v>4080</v>
       </c>
       <c r="F267" t="n">
@@ -9132,7 +9158,7 @@
       <c r="D268" t="n">
         <v>68</v>
       </c>
-      <c r="E268" t="n">
+      <c r="E268" s="1" t="n">
         <v>2155</v>
       </c>
       <c r="F268" t="n">
@@ -9161,7 +9187,7 @@
       <c r="D269" t="n">
         <v>95</v>
       </c>
-      <c r="E269" t="n">
+      <c r="E269" s="1" t="n">
         <v>2560</v>
       </c>
       <c r="F269" t="n">
@@ -9190,7 +9216,7 @@
       <c r="D270" t="n">
         <v>97</v>
       </c>
-      <c r="E270" t="n">
+      <c r="E270" s="1" t="n">
         <v>2300</v>
       </c>
       <c r="F270" t="n">
@@ -9219,7 +9245,7 @@
       <c r="D271" t="n">
         <v>75</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271" s="1" t="n">
         <v>2230</v>
       </c>
       <c r="F271" t="n">
@@ -9248,7 +9274,7 @@
       <c r="D272" t="n">
         <v>95</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272" s="1" t="n">
         <v>2515</v>
       </c>
       <c r="F272" t="n">
@@ -9277,7 +9303,7 @@
       <c r="D273" t="n">
         <v>105</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273" s="1" t="n">
         <v>2745</v>
       </c>
       <c r="F273" t="n">
@@ -9306,7 +9332,7 @@
       <c r="D274" t="n">
         <v>85</v>
       </c>
-      <c r="E274" t="n">
+      <c r="E274" s="1" t="n">
         <v>2855</v>
       </c>
       <c r="F274" t="n">
@@ -9335,7 +9361,7 @@
       <c r="D275" t="n">
         <v>97</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275" s="1" t="n">
         <v>2405</v>
       </c>
       <c r="F275" t="n">
@@ -9364,7 +9390,7 @@
       <c r="D276" t="n">
         <v>103</v>
       </c>
-      <c r="E276" t="n">
+      <c r="E276" s="1" t="n">
         <v>2830</v>
       </c>
       <c r="F276" t="n">
@@ -9393,7 +9419,7 @@
       <c r="D277" t="n">
         <v>125</v>
       </c>
-      <c r="E277" t="n">
+      <c r="E277" s="1" t="n">
         <v>3140</v>
       </c>
       <c r="F277" t="n">
@@ -9422,7 +9448,7 @@
       <c r="D278" t="n">
         <v>115</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278" s="1" t="n">
         <v>2795</v>
       </c>
       <c r="F278" t="n">
@@ -9451,7 +9477,7 @@
       <c r="D279" t="n">
         <v>133</v>
       </c>
-      <c r="E279" t="n">
+      <c r="E279" s="1" t="n">
         <v>3410</v>
       </c>
       <c r="F279" t="n">
@@ -9480,7 +9506,7 @@
       <c r="D280" t="n">
         <v>71</v>
       </c>
-      <c r="E280" t="n">
+      <c r="E280" s="1" t="n">
         <v>1990</v>
       </c>
       <c r="F280" t="n">
@@ -9509,7 +9535,7 @@
       <c r="D281" t="n">
         <v>68</v>
       </c>
-      <c r="E281" t="n">
+      <c r="E281" s="1" t="n">
         <v>2135</v>
       </c>
       <c r="F281" t="n">
@@ -9538,7 +9564,7 @@
       <c r="D282" t="n">
         <v>115</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282" s="1" t="n">
         <v>3245</v>
       </c>
       <c r="F282" t="n">
@@ -9567,7 +9593,7 @@
       <c r="D283" t="n">
         <v>85</v>
       </c>
-      <c r="E283" t="n">
+      <c r="E283" s="1" t="n">
         <v>2990</v>
       </c>
       <c r="F283" t="n">
@@ -9596,7 +9622,7 @@
       <c r="D284" t="n">
         <v>88</v>
       </c>
-      <c r="E284" t="n">
+      <c r="E284" s="1" t="n">
         <v>2890</v>
       </c>
       <c r="F284" t="n">
@@ -9625,7 +9651,7 @@
       <c r="D285" t="n">
         <v>90</v>
       </c>
-      <c r="E285" t="n">
+      <c r="E285" s="1" t="n">
         <v>3265</v>
       </c>
       <c r="F285" t="n">
@@ -9654,7 +9680,7 @@
       <c r="D286" t="n">
         <v>110</v>
       </c>
-      <c r="E286" t="n">
+      <c r="E286" s="1" t="n">
         <v>3360</v>
       </c>
       <c r="F286" t="n">
@@ -9683,7 +9709,7 @@
       <c r="D287" t="n">
         <v>130</v>
       </c>
-      <c r="E287" t="n">
+      <c r="E287" s="1" t="n">
         <v>3840</v>
       </c>
       <c r="F287" t="n">
@@ -9712,7 +9738,7 @@
       <c r="D288" t="n">
         <v>129</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288" s="1" t="n">
         <v>3725</v>
       </c>
       <c r="F288" t="n">
@@ -9741,7 +9767,7 @@
       <c r="D289" t="n">
         <v>138</v>
       </c>
-      <c r="E289" t="n">
+      <c r="E289" s="1" t="n">
         <v>3955</v>
       </c>
       <c r="F289" t="n">
@@ -9770,7 +9796,7 @@
       <c r="D290" t="n">
         <v>135</v>
       </c>
-      <c r="E290" t="n">
+      <c r="E290" s="1" t="n">
         <v>3830</v>
       </c>
       <c r="F290" t="n">
@@ -9799,7 +9825,7 @@
       <c r="D291" t="n">
         <v>155</v>
       </c>
-      <c r="E291" t="n">
+      <c r="E291" s="1" t="n">
         <v>4360</v>
       </c>
       <c r="F291" t="n">
@@ -9828,7 +9854,7 @@
       <c r="D292" t="n">
         <v>142</v>
       </c>
-      <c r="E292" t="n">
+      <c r="E292" s="1" t="n">
         <v>4054</v>
       </c>
       <c r="F292" t="n">
@@ -9857,7 +9883,7 @@
       <c r="D293" t="n">
         <v>125</v>
       </c>
-      <c r="E293" t="n">
+      <c r="E293" s="1" t="n">
         <v>3605</v>
       </c>
       <c r="F293" t="n">
@@ -9886,7 +9912,7 @@
       <c r="D294" t="n">
         <v>150</v>
       </c>
-      <c r="E294" t="n">
+      <c r="E294" s="1" t="n">
         <v>3940</v>
       </c>
       <c r="F294" t="n">
@@ -9915,7 +9941,7 @@
       <c r="D295" t="n">
         <v>71</v>
       </c>
-      <c r="E295" t="n">
+      <c r="E295" s="1" t="n">
         <v>1925</v>
       </c>
       <c r="F295" t="n">
@@ -9944,7 +9970,7 @@
       <c r="D296" t="n">
         <v>65</v>
       </c>
-      <c r="E296" t="n">
+      <c r="E296" s="1" t="n">
         <v>1975</v>
       </c>
       <c r="F296" t="n">
@@ -9973,7 +9999,7 @@
       <c r="D297" t="n">
         <v>80</v>
       </c>
-      <c r="E297" t="n">
+      <c r="E297" s="1" t="n">
         <v>1915</v>
       </c>
       <c r="F297" t="n">
@@ -10002,7 +10028,7 @@
       <c r="D298" t="n">
         <v>80</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E298" s="1" t="n">
         <v>2670</v>
       </c>
       <c r="F298" t="n">
@@ -10031,7 +10057,7 @@
       <c r="D299" t="n">
         <v>77</v>
       </c>
-      <c r="E299" t="n">
+      <c r="E299" s="1" t="n">
         <v>3530</v>
       </c>
       <c r="F299" t="n">
@@ -10060,7 +10086,7 @@
       <c r="D300" t="n">
         <v>125</v>
       </c>
-      <c r="E300" t="n">
+      <c r="E300" s="1" t="n">
         <v>3900</v>
       </c>
       <c r="F300" t="n">
@@ -10089,7 +10115,7 @@
       <c r="D301" t="n">
         <v>71</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301" s="1" t="n">
         <v>3190</v>
       </c>
       <c r="F301" t="n">
@@ -10118,7 +10144,7 @@
       <c r="D302" t="n">
         <v>90</v>
       </c>
-      <c r="E302" t="n">
+      <c r="E302" s="1" t="n">
         <v>3420</v>
       </c>
       <c r="F302" t="n">
@@ -10147,7 +10173,7 @@
       <c r="D303" t="n">
         <v>70</v>
       </c>
-      <c r="E303" t="n">
+      <c r="E303" s="1" t="n">
         <v>2200</v>
       </c>
       <c r="F303" t="n">
@@ -10176,7 +10202,7 @@
       <c r="D304" t="n">
         <v>70</v>
       </c>
-      <c r="E304" t="n">
+      <c r="E304" s="1" t="n">
         <v>2150</v>
       </c>
       <c r="F304" t="n">
@@ -10205,7 +10231,7 @@
       <c r="D305" t="n">
         <v>65</v>
       </c>
-      <c r="E305" t="n">
+      <c r="E305" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="F305" t="n">
@@ -10234,7 +10260,7 @@
       <c r="D306" t="n">
         <v>69</v>
       </c>
-      <c r="E306" t="n">
+      <c r="E306" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="F306" t="n">
@@ -10263,7 +10289,7 @@
       <c r="D307" t="n">
         <v>90</v>
       </c>
-      <c r="E307" t="n">
+      <c r="E307" s="1" t="n">
         <v>2670</v>
       </c>
       <c r="F307" t="n">
@@ -10292,7 +10318,7 @@
       <c r="D308" t="n">
         <v>115</v>
       </c>
-      <c r="E308" t="n">
+      <c r="E308" s="1" t="n">
         <v>2595</v>
       </c>
       <c r="F308" t="n">
@@ -10321,7 +10347,7 @@
       <c r="D309" t="n">
         <v>115</v>
       </c>
-      <c r="E309" t="n">
+      <c r="E309" s="1" t="n">
         <v>2700</v>
       </c>
       <c r="F309" t="n">
@@ -10350,7 +10376,7 @@
       <c r="D310" t="n">
         <v>90</v>
       </c>
-      <c r="E310" t="n">
+      <c r="E310" s="1" t="n">
         <v>2556</v>
       </c>
       <c r="F310" t="n">
@@ -10379,7 +10405,7 @@
       <c r="D311" t="n">
         <v>76</v>
       </c>
-      <c r="E311" t="n">
+      <c r="E311" s="1" t="n">
         <v>2144</v>
       </c>
       <c r="F311" t="n">
@@ -10408,7 +10434,7 @@
       <c r="D312" t="n">
         <v>60</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E312" s="1" t="n">
         <v>1968</v>
       </c>
       <c r="F312" t="n">
@@ -10437,7 +10463,7 @@
       <c r="D313" t="n">
         <v>70</v>
       </c>
-      <c r="E313" t="n">
+      <c r="E313" s="1" t="n">
         <v>2120</v>
       </c>
       <c r="F313" t="n">
@@ -10466,7 +10492,7 @@
       <c r="D314" t="n">
         <v>65</v>
       </c>
-      <c r="E314" t="n">
+      <c r="E314" s="1" t="n">
         <v>2019</v>
       </c>
       <c r="F314" t="n">
@@ -10495,7 +10521,7 @@
       <c r="D315" t="n">
         <v>90</v>
       </c>
-      <c r="E315" t="n">
+      <c r="E315" s="1" t="n">
         <v>2678</v>
       </c>
       <c r="F315" t="n">
@@ -10524,7 +10550,7 @@
       <c r="D316" t="n">
         <v>88</v>
       </c>
-      <c r="E316" t="n">
+      <c r="E316" s="1" t="n">
         <v>2870</v>
       </c>
       <c r="F316" t="n">
@@ -10553,7 +10579,7 @@
       <c r="D317" t="n">
         <v>90</v>
       </c>
-      <c r="E317" t="n">
+      <c r="E317" s="1" t="n">
         <v>3003</v>
       </c>
       <c r="F317" t="n">
@@ -10582,7 +10608,7 @@
       <c r="D318" t="n">
         <v>90</v>
       </c>
-      <c r="E318" t="n">
+      <c r="E318" s="1" t="n">
         <v>3381</v>
       </c>
       <c r="F318" t="n">
@@ -10611,7 +10637,7 @@
       <c r="D319" t="n">
         <v>78</v>
       </c>
-      <c r="E319" t="n">
+      <c r="E319" s="1" t="n">
         <v>2188</v>
       </c>
       <c r="F319" t="n">
@@ -10640,7 +10666,7 @@
       <c r="D320" t="n">
         <v>90</v>
       </c>
-      <c r="E320" t="n">
+      <c r="E320" s="1" t="n">
         <v>2711</v>
       </c>
       <c r="F320" t="n">
@@ -10669,7 +10695,7 @@
       <c r="D321" t="n">
         <v>75</v>
       </c>
-      <c r="E321" t="n">
+      <c r="E321" s="1" t="n">
         <v>2542</v>
       </c>
       <c r="F321" t="n">
@@ -10698,7 +10724,7 @@
       <c r="D322" t="n">
         <v>92</v>
       </c>
-      <c r="E322" t="n">
+      <c r="E322" s="1" t="n">
         <v>2434</v>
       </c>
       <c r="F322" t="n">
@@ -10727,7 +10753,7 @@
       <c r="D323" t="n">
         <v>75</v>
       </c>
-      <c r="E323" t="n">
+      <c r="E323" s="1" t="n">
         <v>2265</v>
       </c>
       <c r="F323" t="n">
@@ -10756,7 +10782,7 @@
       <c r="D324" t="n">
         <v>65</v>
       </c>
-      <c r="E324" t="n">
+      <c r="E324" s="1" t="n">
         <v>2110</v>
       </c>
       <c r="F324" t="n">
@@ -10785,7 +10811,7 @@
       <c r="D325" t="n">
         <v>105</v>
       </c>
-      <c r="E325" t="n">
+      <c r="E325" s="1" t="n">
         <v>2800</v>
       </c>
       <c r="F325" t="n">
@@ -10814,7 +10840,7 @@
       <c r="D326" t="n">
         <v>65</v>
       </c>
-      <c r="E326" t="n">
+      <c r="E326" s="1" t="n">
         <v>2110</v>
       </c>
       <c r="F326" t="n">
@@ -10843,7 +10869,7 @@
       <c r="D327" t="n">
         <v>48</v>
       </c>
-      <c r="E327" t="n">
+      <c r="E327" s="1" t="n">
         <v>2085</v>
       </c>
       <c r="F327" t="n">
@@ -10872,7 +10898,7 @@
       <c r="D328" t="n">
         <v>48</v>
       </c>
-      <c r="E328" t="n">
+      <c r="E328" s="1" t="n">
         <v>2335</v>
       </c>
       <c r="F328" t="n">
@@ -10901,7 +10927,7 @@
       <c r="D329" t="n">
         <v>67</v>
       </c>
-      <c r="E329" t="n">
+      <c r="E329" s="1" t="n">
         <v>2950</v>
       </c>
       <c r="F329" t="n">
@@ -10930,7 +10956,7 @@
       <c r="D330" t="n">
         <v>67</v>
       </c>
-      <c r="E330" t="n">
+      <c r="E330" s="1" t="n">
         <v>3250</v>
       </c>
       <c r="F330" t="n">
@@ -10959,7 +10985,7 @@
       <c r="D331" t="n">
         <v>67</v>
       </c>
-      <c r="E331" t="n">
+      <c r="E331" s="1" t="n">
         <v>1850</v>
       </c>
       <c r="F331" t="n">
@@ -10986,7 +11012,7 @@
         <v>85</v>
       </c>
       <c r="D332"/>
-      <c r="E332" t="n">
+      <c r="E332" s="1" t="n">
         <v>1835</v>
       </c>
       <c r="F332" t="n">
@@ -11015,7 +11041,7 @@
       <c r="D333" t="n">
         <v>67</v>
       </c>
-      <c r="E333" t="n">
+      <c r="E333" s="1" t="n">
         <v>2145</v>
       </c>
       <c r="F333" t="n">
@@ -11044,7 +11070,7 @@
       <c r="D334" t="n">
         <v>62</v>
       </c>
-      <c r="E334" t="n">
+      <c r="E334" s="1" t="n">
         <v>1845</v>
       </c>
       <c r="F334" t="n">
@@ -11073,7 +11099,7 @@
       <c r="D335" t="n">
         <v>132</v>
       </c>
-      <c r="E335" t="n">
+      <c r="E335" s="1" t="n">
         <v>2910</v>
       </c>
       <c r="F335" t="n">
@@ -11102,7 +11128,7 @@
       <c r="D336" t="n">
         <v>100</v>
       </c>
-      <c r="E336" t="n">
+      <c r="E336" s="1" t="n">
         <v>2420</v>
       </c>
       <c r="F336" t="n">
@@ -11131,7 +11157,7 @@
       <c r="D337" t="n">
         <v>88</v>
       </c>
-      <c r="E337" t="n">
+      <c r="E337" s="1" t="n">
         <v>2500</v>
       </c>
       <c r="F337" t="n">
@@ -11158,7 +11184,7 @@
         <v>140</v>
       </c>
       <c r="D338"/>
-      <c r="E338" t="n">
+      <c r="E338" s="1" t="n">
         <v>2905</v>
       </c>
       <c r="F338" t="n">
@@ -11187,7 +11213,7 @@
       <c r="D339" t="n">
         <v>72</v>
       </c>
-      <c r="E339" t="n">
+      <c r="E339" s="1" t="n">
         <v>2290</v>
       </c>
       <c r="F339" t="n">
@@ -11216,7 +11242,7 @@
       <c r="D340" t="n">
         <v>84</v>
       </c>
-      <c r="E340" t="n">
+      <c r="E340" s="1" t="n">
         <v>2490</v>
       </c>
       <c r="F340" t="n">
@@ -11245,7 +11271,7 @@
       <c r="D341" t="n">
         <v>84</v>
       </c>
-      <c r="E341" t="n">
+      <c r="E341" s="1" t="n">
         <v>2635</v>
       </c>
       <c r="F341" t="n">
@@ -11274,7 +11300,7 @@
       <c r="D342" t="n">
         <v>92</v>
       </c>
-      <c r="E342" t="n">
+      <c r="E342" s="1" t="n">
         <v>2620</v>
       </c>
       <c r="F342" t="n">
@@ -11303,7 +11329,7 @@
       <c r="D343" t="n">
         <v>110</v>
       </c>
-      <c r="E343" t="n">
+      <c r="E343" s="1" t="n">
         <v>2725</v>
       </c>
       <c r="F343" t="n">
@@ -11332,7 +11358,7 @@
       <c r="D344" t="n">
         <v>84</v>
       </c>
-      <c r="E344" t="n">
+      <c r="E344" s="1" t="n">
         <v>2385</v>
       </c>
       <c r="F344" t="n">
@@ -11361,7 +11387,7 @@
       <c r="D345" t="n">
         <v>58</v>
       </c>
-      <c r="E345" t="n">
+      <c r="E345" s="1" t="n">
         <v>1755</v>
       </c>
       <c r="F345" t="n">
@@ -11390,7 +11416,7 @@
       <c r="D346" t="n">
         <v>64</v>
       </c>
-      <c r="E346" t="n">
+      <c r="E346" s="1" t="n">
         <v>1875</v>
       </c>
       <c r="F346" t="n">
@@ -11419,7 +11445,7 @@
       <c r="D347" t="n">
         <v>60</v>
       </c>
-      <c r="E347" t="n">
+      <c r="E347" s="1" t="n">
         <v>1760</v>
       </c>
       <c r="F347" t="n">
@@ -11448,7 +11474,7 @@
       <c r="D348" t="n">
         <v>67</v>
       </c>
-      <c r="E348" t="n">
+      <c r="E348" s="1" t="n">
         <v>2065</v>
       </c>
       <c r="F348" t="n">
@@ -11477,7 +11503,7 @@
       <c r="D349" t="n">
         <v>65</v>
       </c>
-      <c r="E349" t="n">
+      <c r="E349" s="1" t="n">
         <v>1975</v>
       </c>
       <c r="F349" t="n">
@@ -11506,7 +11532,7 @@
       <c r="D350" t="n">
         <v>62</v>
       </c>
-      <c r="E350" t="n">
+      <c r="E350" s="1" t="n">
         <v>2050</v>
       </c>
       <c r="F350" t="n">
@@ -11535,7 +11561,7 @@
       <c r="D351" t="n">
         <v>68</v>
       </c>
-      <c r="E351" t="n">
+      <c r="E351" s="1" t="n">
         <v>1985</v>
       </c>
       <c r="F351" t="n">
@@ -11564,7 +11590,7 @@
       <c r="D352" t="n">
         <v>63</v>
       </c>
-      <c r="E352" t="n">
+      <c r="E352" s="1" t="n">
         <v>2215</v>
       </c>
       <c r="F352" t="n">
@@ -11593,7 +11619,7 @@
       <c r="D353" t="n">
         <v>65</v>
       </c>
-      <c r="E353" t="n">
+      <c r="E353" s="1" t="n">
         <v>2045</v>
       </c>
       <c r="F353" t="n">
@@ -11622,7 +11648,7 @@
       <c r="D354" t="n">
         <v>65</v>
       </c>
-      <c r="E354" t="n">
+      <c r="E354" s="1" t="n">
         <v>2380</v>
       </c>
       <c r="F354" t="n">
@@ -11651,7 +11677,7 @@
       <c r="D355" t="n">
         <v>74</v>
       </c>
-      <c r="E355" t="n">
+      <c r="E355" s="1" t="n">
         <v>2190</v>
       </c>
       <c r="F355" t="n">
@@ -11678,7 +11704,7 @@
         <v>100</v>
       </c>
       <c r="D356"/>
-      <c r="E356" t="n">
+      <c r="E356" s="1" t="n">
         <v>2320</v>
       </c>
       <c r="F356" t="n">
@@ -11707,7 +11733,7 @@
       <c r="D357" t="n">
         <v>75</v>
       </c>
-      <c r="E357" t="n">
+      <c r="E357" s="1" t="n">
         <v>2210</v>
       </c>
       <c r="F357" t="n">
@@ -11736,7 +11762,7 @@
       <c r="D358" t="n">
         <v>75</v>
       </c>
-      <c r="E358" t="n">
+      <c r="E358" s="1" t="n">
         <v>2350</v>
       </c>
       <c r="F358" t="n">
@@ -11765,7 +11791,7 @@
       <c r="D359" t="n">
         <v>100</v>
       </c>
-      <c r="E359" t="n">
+      <c r="E359" s="1" t="n">
         <v>2615</v>
       </c>
       <c r="F359" t="n">
@@ -11794,7 +11820,7 @@
       <c r="D360" t="n">
         <v>74</v>
       </c>
-      <c r="E360" t="n">
+      <c r="E360" s="1" t="n">
         <v>2635</v>
       </c>
       <c r="F360" t="n">
@@ -11823,7 +11849,7 @@
       <c r="D361" t="n">
         <v>80</v>
       </c>
-      <c r="E361" t="n">
+      <c r="E361" s="1" t="n">
         <v>3230</v>
       </c>
       <c r="F361" t="n">
@@ -11852,7 +11878,7 @@
       <c r="D362" t="n">
         <v>76</v>
       </c>
-      <c r="E362" t="n">
+      <c r="E362" s="1" t="n">
         <v>3160</v>
       </c>
       <c r="F362" t="n">
@@ -11881,7 +11907,7 @@
       <c r="D363" t="n">
         <v>116</v>
       </c>
-      <c r="E363" t="n">
+      <c r="E363" s="1" t="n">
         <v>2900</v>
       </c>
       <c r="F363" t="n">
@@ -11910,7 +11936,7 @@
       <c r="D364" t="n">
         <v>120</v>
       </c>
-      <c r="E364" t="n">
+      <c r="E364" s="1" t="n">
         <v>2930</v>
       </c>
       <c r="F364" t="n">
@@ -11939,7 +11965,7 @@
       <c r="D365" t="n">
         <v>110</v>
       </c>
-      <c r="E365" t="n">
+      <c r="E365" s="1" t="n">
         <v>3415</v>
       </c>
       <c r="F365" t="n">
@@ -11968,7 +11994,7 @@
       <c r="D366" t="n">
         <v>105</v>
       </c>
-      <c r="E366" t="n">
+      <c r="E366" s="1" t="n">
         <v>3725</v>
       </c>
       <c r="F366" t="n">
@@ -11997,7 +12023,7 @@
       <c r="D367" t="n">
         <v>88</v>
       </c>
-      <c r="E367" t="n">
+      <c r="E367" s="1" t="n">
         <v>3060</v>
       </c>
       <c r="F367" t="n">
@@ -12026,7 +12052,7 @@
       <c r="D368" t="n">
         <v>85</v>
       </c>
-      <c r="E368" t="n">
+      <c r="E368" s="1" t="n">
         <v>3465</v>
       </c>
       <c r="F368" t="n">
@@ -12055,7 +12081,7 @@
       <c r="D369" t="n">
         <v>88</v>
       </c>
-      <c r="E369" t="n">
+      <c r="E369" s="1" t="n">
         <v>2605</v>
       </c>
       <c r="F369" t="n">
@@ -12084,7 +12110,7 @@
       <c r="D370" t="n">
         <v>88</v>
       </c>
-      <c r="E370" t="n">
+      <c r="E370" s="1" t="n">
         <v>2640</v>
       </c>
       <c r="F370" t="n">
@@ -12113,7 +12139,7 @@
       <c r="D371" t="n">
         <v>88</v>
       </c>
-      <c r="E371" t="n">
+      <c r="E371" s="1" t="n">
         <v>2395</v>
       </c>
       <c r="F371" t="n">
@@ -12142,7 +12168,7 @@
       <c r="D372" t="n">
         <v>85</v>
       </c>
-      <c r="E372" t="n">
+      <c r="E372" s="1" t="n">
         <v>2575</v>
       </c>
       <c r="F372" t="n">
@@ -12171,7 +12197,7 @@
       <c r="D373" t="n">
         <v>84</v>
       </c>
-      <c r="E373" t="n">
+      <c r="E373" s="1" t="n">
         <v>2525</v>
       </c>
       <c r="F373" t="n">
@@ -12200,7 +12226,7 @@
       <c r="D374" t="n">
         <v>90</v>
       </c>
-      <c r="E374" t="n">
+      <c r="E374" s="1" t="n">
         <v>2735</v>
       </c>
       <c r="F374" t="n">
@@ -12229,7 +12255,7 @@
       <c r="D375" t="n">
         <v>92</v>
       </c>
-      <c r="E375" t="n">
+      <c r="E375" s="1" t="n">
         <v>2865</v>
       </c>
       <c r="F375" t="n">
@@ -12256,7 +12282,7 @@
         <v>151</v>
       </c>
       <c r="D376"/>
-      <c r="E376" t="n">
+      <c r="E376" s="1" t="n">
         <v>3035</v>
       </c>
       <c r="F376" t="n">
@@ -12285,7 +12311,7 @@
       <c r="D377" t="n">
         <v>74</v>
       </c>
-      <c r="E377" t="n">
+      <c r="E377" s="1" t="n">
         <v>1980</v>
       </c>
       <c r="F377" t="n">
@@ -12314,7 +12340,7 @@
       <c r="D378" t="n">
         <v>68</v>
       </c>
-      <c r="E378" t="n">
+      <c r="E378" s="1" t="n">
         <v>2025</v>
       </c>
       <c r="F378" t="n">
@@ -12343,7 +12369,7 @@
       <c r="D379" t="n">
         <v>68</v>
       </c>
-      <c r="E379" t="n">
+      <c r="E379" s="1" t="n">
         <v>1970</v>
       </c>
       <c r="F379" t="n">
@@ -12372,7 +12398,7 @@
       <c r="D380" t="n">
         <v>63</v>
       </c>
-      <c r="E380" t="n">
+      <c r="E380" s="1" t="n">
         <v>2125</v>
       </c>
       <c r="F380" t="n">
@@ -12401,7 +12427,7 @@
       <c r="D381" t="n">
         <v>70</v>
       </c>
-      <c r="E381" t="n">
+      <c r="E381" s="1" t="n">
         <v>2125</v>
       </c>
       <c r="F381" t="n">
@@ -12430,7 +12456,7 @@
       <c r="D382" t="n">
         <v>88</v>
       </c>
-      <c r="E382" t="n">
+      <c r="E382" s="1" t="n">
         <v>2160</v>
       </c>
       <c r="F382" t="n">
@@ -12459,7 +12485,7 @@
       <c r="D383" t="n">
         <v>75</v>
       </c>
-      <c r="E383" t="n">
+      <c r="E383" s="1" t="n">
         <v>2205</v>
       </c>
       <c r="F383" t="n">
@@ -12488,7 +12514,7 @@
       <c r="D384" t="n">
         <v>70</v>
       </c>
-      <c r="E384" t="n">
+      <c r="E384" s="1" t="n">
         <v>2245</v>
       </c>
       <c r="F384" t="n">
@@ -12517,7 +12543,7 @@
       <c r="D385" t="n">
         <v>67</v>
       </c>
-      <c r="E385" t="n">
+      <c r="E385" s="1" t="n">
         <v>1965</v>
       </c>
       <c r="F385" t="n">
@@ -12546,7 +12572,7 @@
       <c r="D386" t="n">
         <v>67</v>
       </c>
-      <c r="E386" t="n">
+      <c r="E386" s="1" t="n">
         <v>1965</v>
       </c>
       <c r="F386" t="n">
@@ -12575,7 +12601,7 @@
       <c r="D387" t="n">
         <v>67</v>
       </c>
-      <c r="E387" t="n">
+      <c r="E387" s="1" t="n">
         <v>1995</v>
       </c>
       <c r="F387" t="n">
@@ -12604,7 +12630,7 @@
       <c r="D388" t="n">
         <v>110</v>
       </c>
-      <c r="E388" t="n">
+      <c r="E388" s="1" t="n">
         <v>2945</v>
       </c>
       <c r="F388" t="n">
@@ -12633,7 +12659,7 @@
       <c r="D389" t="n">
         <v>85</v>
       </c>
-      <c r="E389" t="n">
+      <c r="E389" s="1" t="n">
         <v>3015</v>
       </c>
       <c r="F389" t="n">
@@ -12662,7 +12688,7 @@
       <c r="D390" t="n">
         <v>92</v>
       </c>
-      <c r="E390" t="n">
+      <c r="E390" s="1" t="n">
         <v>2585</v>
       </c>
       <c r="F390" t="n">
@@ -12691,7 +12717,7 @@
       <c r="D391" t="n">
         <v>112</v>
       </c>
-      <c r="E391" t="n">
+      <c r="E391" s="1" t="n">
         <v>2835</v>
       </c>
       <c r="F391" t="n">
@@ -12720,7 +12746,7 @@
       <c r="D392" t="n">
         <v>96</v>
       </c>
-      <c r="E392" t="n">
+      <c r="E392" s="1" t="n">
         <v>2665</v>
       </c>
       <c r="F392" t="n">
@@ -12749,7 +12775,7 @@
       <c r="D393" t="n">
         <v>84</v>
       </c>
-      <c r="E393" t="n">
+      <c r="E393" s="1" t="n">
         <v>2370</v>
       </c>
       <c r="F393" t="n">
@@ -12778,7 +12804,7 @@
       <c r="D394" t="n">
         <v>90</v>
       </c>
-      <c r="E394" t="n">
+      <c r="E394" s="1" t="n">
         <v>2950</v>
       </c>
       <c r="F394" t="n">
@@ -12807,7 +12833,7 @@
       <c r="D395" t="n">
         <v>86</v>
       </c>
-      <c r="E395" t="n">
+      <c r="E395" s="1" t="n">
         <v>2790</v>
       </c>
       <c r="F395" t="n">
@@ -12836,7 +12862,7 @@
       <c r="D396" t="n">
         <v>52</v>
       </c>
-      <c r="E396" t="n">
+      <c r="E396" s="1" t="n">
         <v>2130</v>
       </c>
       <c r="F396" t="n">
@@ -12865,7 +12891,7 @@
       <c r="D397" t="n">
         <v>84</v>
       </c>
-      <c r="E397" t="n">
+      <c r="E397" s="1" t="n">
         <v>2295</v>
       </c>
       <c r="F397" t="n">
@@ -12894,7 +12920,7 @@
       <c r="D398" t="n">
         <v>79</v>
       </c>
-      <c r="E398" t="n">
+      <c r="E398" s="1" t="n">
         <v>2625</v>
       </c>
       <c r="F398" t="n">
@@ -12940,6 +12966,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I2:I399">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="ford">
+      <formula>LEFT(I2,LEN("ford"))="ford"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <tableParts count="1">
@@ -12952,9 +12983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/mpg-report.xlsx
+++ b/mpg-report.xlsx
@@ -1419,7 +1419,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -12949,7 +12949,7 @@
       <c r="D399" t="n">
         <v>82</v>
       </c>
-      <c r="E399" t="n">
+      <c r="E399" s="1" t="n">
         <v>2720</v>
       </c>
       <c r="F399" t="n">
